--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="10995"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -75,7 +75,7 @@
     <t>第07讲：Java 内存模型与线程.md</t>
   </si>
   <si>
-    <t>自定义View基础</t>
+    <t>自定义View-基础</t>
   </si>
   <si>
     <t>自定义View_01_简介.md</t>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>自定义View_02_TextView.md</t>
+  </si>
+  <si>
+    <t>自定义View-实践-仿QQ运动弧形进度条</t>
   </si>
   <si>
     <t>第08讲：再学 Synchronized，何为 ReentrantLock.md</t>
@@ -116,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -157,6 +160,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,98 +237,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +265,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,15 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -530,15 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +563,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -600,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +615,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,119 +633,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +776,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,6 +789,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,21 +1145,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1187,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1294,7 @@
       </c>
     </row>
     <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>44251</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1291,11 +1303,11 @@
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1309,7 +1321,10 @@
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
+        <v>44253</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1333,7 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>44252</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1327,27 +1342,37 @@
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="3" t="s">
+    <row r="13" ht="15" spans="1:7">
+      <c r="A13" s="16">
+        <v>44253</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="13"/>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:G13">

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20685" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NJCS</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">lizw:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>今天日期-上次复习时间</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>日期</t>
   </si>
@@ -30,7 +62,10 @@
     <t>掌握程度</t>
   </si>
   <si>
-    <t>复习</t>
+    <t>最新复习</t>
+  </si>
+  <si>
+    <t>复习日差</t>
   </si>
   <si>
     <t>归类</t>
@@ -39,6 +74,178 @@
     <t>输入</t>
   </si>
   <si>
+    <t>历史复习</t>
+  </si>
+  <si>
+    <t>Android-apk编译打包流程</t>
+  </si>
+  <si>
+    <t>Android-apk编译打包流程.md</t>
+  </si>
+  <si>
+    <t>Activity的生命周期总结</t>
+  </si>
+  <si>
+    <t>Activity的生命周期总结.md</t>
+  </si>
+  <si>
+    <t>Activity的启动模式总结</t>
+  </si>
+  <si>
+    <t>Activity的启动模式总结.md</t>
+  </si>
+  <si>
+    <t>Android应用内升级App</t>
+  </si>
+  <si>
+    <t>Android应用内升级App.md</t>
+  </si>
+  <si>
+    <t>Bitmap高效加载及Android缓存策略</t>
+  </si>
+  <si>
+    <t>Bitmap高效加载及Android缓存策略.md</t>
+  </si>
+  <si>
+    <t>Android大图加载（显示）原理</t>
+  </si>
+  <si>
+    <t>Android大图加载（显示）原理.md</t>
+  </si>
+  <si>
+    <t>动画合集之帧动画</t>
+  </si>
+  <si>
+    <t>动画合集之帧动画.md</t>
+  </si>
+  <si>
+    <t>动画合集之补间动画</t>
+  </si>
+  <si>
+    <t>动画合集之补间动画.md</t>
+  </si>
+  <si>
+    <t>动画合集之属性动画——基础</t>
+  </si>
+  <si>
+    <t>动画合集之属性动画——基础.md</t>
+  </si>
+  <si>
+    <t>动画合集之属性动画——进阶</t>
+  </si>
+  <si>
+    <t>动画合集之属性动画——进阶.md</t>
+  </si>
+  <si>
+    <t>synchronized初学笔记</t>
+  </si>
+  <si>
+    <t>synchronized初学笔记.md</t>
+  </si>
+  <si>
+    <t>String、StringBuffer、StringBuilder的区别</t>
+  </si>
+  <si>
+    <t>String、StringBuffer、StringBuilder的区别.md</t>
+  </si>
+  <si>
+    <t>什么是ANR，如何避免它？</t>
+  </si>
+  <si>
+    <t>什么是ANR，如何避免它？.md</t>
+  </si>
+  <si>
+    <t>Android异步任务机制之AsyncTask</t>
+  </si>
+  <si>
+    <t>Android异步任务机制之AsyncTask.md</t>
+  </si>
+  <si>
+    <r>
+      <t>Handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.md</t>
+    </r>
+  </si>
+  <si>
+    <t>Handler消息机制源码分析之Handler类</t>
+  </si>
+  <si>
+    <t>Handler消息机制源码分析之Handler类.md</t>
+  </si>
+  <si>
+    <t>Handler消息机制之问题汇总一</t>
+  </si>
+  <si>
+    <t>Handler消息机制之问题汇总一.md</t>
+  </si>
+  <si>
     <t>反编译APK获取代码&amp;资源</t>
   </si>
   <si>
@@ -51,6 +258,42 @@
     <t>菜鸟教程-反编译APK获取代码&amp;资源</t>
   </si>
   <si>
+    <t>Android动态更换应用Icon</t>
+  </si>
+  <si>
+    <t>Android动态更换应用Icon.md</t>
+  </si>
+  <si>
+    <t>View的事件分发机制</t>
+  </si>
+  <si>
+    <t>View的事件分发机制.md</t>
+  </si>
+  <si>
+    <t>内存泄漏——笔记1</t>
+  </si>
+  <si>
+    <t>内存泄漏——笔记1.md</t>
+  </si>
+  <si>
+    <t>Glide基本使用</t>
+  </si>
+  <si>
+    <t>Glide基本使用.md</t>
+  </si>
+  <si>
+    <t>HashMap原理初学</t>
+  </si>
+  <si>
+    <t>HashMap原理初学.md</t>
+  </si>
+  <si>
+    <t>注解-学习笔记</t>
+  </si>
+  <si>
+    <t>注解-学习笔记.md</t>
+  </si>
+  <si>
     <t>第01讲：程序运行时，内存到底是如何进行分配的？.md</t>
   </si>
   <si>
@@ -106,6 +349,39 @@
   </si>
   <si>
     <t>自定义View-实践-仿QQ运动弧形进度条</t>
+  </si>
+  <si>
+    <t>CustomViewDemo（见Github）</t>
+  </si>
+  <si>
+    <t>自定义ColorTrackTextView</t>
+  </si>
+  <si>
+    <t>自定义CircleProgressBar</t>
+  </si>
+  <si>
+    <t>自定义LoadingView</t>
+  </si>
+  <si>
+    <t>Java代码删除文件夹（删除项目中的build文件夹以减少项目大小）</t>
+  </si>
+  <si>
+    <t>自定义RatingView</t>
+  </si>
+  <si>
+    <t>阅读-ViewGroup/View事件分发源码</t>
+  </si>
+  <si>
+    <t>从onTouchEvent()方法出发，再次分析事件分发机制.md</t>
+  </si>
+  <si>
+    <t>未完成，还需要完善</t>
+  </si>
+  <si>
+    <t>事件分发</t>
+  </si>
+  <si>
+    <t>自定义LetterSideBar</t>
   </si>
   <si>
     <t>第08讲：再学 Synchronized，何为 ReentrantLock.md</t>
@@ -118,13 +394,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +413,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -160,7 +449,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +529,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -198,25 +543,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,71 +575,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -304,187 +616,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +807,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,17 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,13 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,35 +893,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,137 +927,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,47 +1067,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,247 +1499,936 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="10">
+        <v>43959</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10">
+        <v>43959</v>
+      </c>
+      <c r="F2" s="7">
+        <f ca="1" t="shared" ref="F2:F25" si="0">TODAY()-E2</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="10">
+        <v>44081</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10">
+        <v>44081</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="10">
+        <v>44082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="10">
+        <v>44082</v>
+      </c>
+      <c r="F4" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="10">
+        <v>44084</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10">
+        <v>44084</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="10">
+        <v>44089</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F6" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="10">
+        <v>44091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10">
+        <v>44091</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="10">
+        <v>44092</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10">
+        <v>44092</v>
+      </c>
+      <c r="F8" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="10">
+        <v>44092</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10">
+        <v>44092</v>
+      </c>
+      <c r="F9" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="10">
+        <v>44094</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10">
+        <v>44094</v>
+      </c>
+      <c r="F10" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="10">
+        <v>44094</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10">
+        <v>44094</v>
+      </c>
+      <c r="F11" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="10">
+        <v>44102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10">
+        <v>44102</v>
+      </c>
+      <c r="F12" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="10">
+        <v>44102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10">
+        <v>44102</v>
+      </c>
+      <c r="F13" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="10">
+        <v>44123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10">
+        <v>44123</v>
+      </c>
+      <c r="F14" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="10">
+        <v>44123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10">
+        <v>44123</v>
+      </c>
+      <c r="F15" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A16" s="10">
+        <v>44124</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10">
+        <v>44124</v>
+      </c>
+      <c r="F16" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="10">
+        <v>44124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10">
+        <v>44124</v>
+      </c>
+      <c r="F17" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="10">
+        <v>44127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10">
+        <v>44127</v>
+      </c>
+      <c r="F18" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
         <v>44135</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13">
+        <v>44135</v>
+      </c>
+      <c r="F19" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>44158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13">
+        <v>44158</v>
+      </c>
+      <c r="F20" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>44161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13">
+        <v>44161</v>
+      </c>
+      <c r="F21" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>44166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13">
+        <v>44166</v>
+      </c>
+      <c r="F22" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>44168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13">
+        <v>44168</v>
+      </c>
+      <c r="F23" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>44192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13">
+        <v>44192</v>
+      </c>
+      <c r="F24" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
+        <v>44187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13">
+        <v>44187</v>
+      </c>
+      <c r="F25" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>44190</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="13">
+        <v>44190</v>
+      </c>
+      <c r="F26" s="7">
+        <f ca="1" t="shared" ref="F26:F33" si="1">TODAY()-E26</f>
+        <v>69</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>44190</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="13">
+        <v>44190</v>
+      </c>
+      <c r="F27" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="13">
+        <v>44193</v>
+      </c>
+      <c r="F28" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13">
+        <v>44194</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="13">
+        <v>44194</v>
+      </c>
+      <c r="F29" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13">
+        <v>44195</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="13">
+        <v>44195</v>
+      </c>
+      <c r="F30" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13">
+        <v>44196</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="13">
+        <v>44196</v>
+      </c>
+      <c r="F31" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13">
+        <v>44200</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="13">
+        <v>44200</v>
+      </c>
+      <c r="F32" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:8">
+      <c r="A33" s="22">
+        <v>44251</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22">
+        <v>44251</v>
+      </c>
+      <c r="F33" s="7">
+        <f ca="1" t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>44252</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="6">
+        <v>44253</v>
+      </c>
+      <c r="F34" s="7">
+        <f ca="1">TODAY()-E34</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="30">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:8">
+      <c r="A35" s="22">
+        <v>44252</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22">
+        <v>44252</v>
+      </c>
+      <c r="F35" s="7">
+        <f ca="1" t="shared" ref="F35:F43" si="2">TODAY()-E35</f>
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>44190</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>44190</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>44193</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>44194</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>44195</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <v>44196</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>44200</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="11">
-        <v>44251</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>44252</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
+      <c r="G35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:8">
+      <c r="A36" s="25">
         <v>44253</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="11">
-        <v>44252</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="16">
+      <c r="B36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="25">
         <v>44253</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="14"/>
+      <c r="F36" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
+        <v>44256</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10">
+        <v>44256</v>
+      </c>
+      <c r="F37" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
+        <v>44257</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="10">
+        <v>44257</v>
+      </c>
+      <c r="F38" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>44257</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="10">
+        <v>44257</v>
+      </c>
+      <c r="F39" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:6">
+      <c r="A40" s="10">
+        <v>44258</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="10">
+        <v>44258</v>
+      </c>
+      <c r="F40" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10">
+        <v>44258</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="10">
+        <v>44258</v>
+      </c>
+      <c r="F41" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10">
+        <v>44259</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="10">
+        <v>44259</v>
+      </c>
+      <c r="F42" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
+        <v>44259</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="10">
+        <v>44259</v>
+      </c>
+      <c r="F43" s="7">
+        <f ca="1" t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G13">
+  <sortState ref="A2:H13">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="菜鸟教程-反编译APK获取代码&amp;资源"/>
-    <hyperlink ref="G10" r:id="rId2" display="B站-Android/自定义控件/自定义View"/>
-    <hyperlink ref="G12" r:id="rId2" display="B站-Android/自定义控件/自定义View"/>
+    <hyperlink ref="H19" r:id="rId3" display="菜鸟教程-反编译APK获取代码&amp;资源"/>
+    <hyperlink ref="H33" r:id="rId4" display="B站-Android/自定义控件/自定义View"/>
+    <hyperlink ref="H35" r:id="rId4" display="B站-Android/自定义控件/自定义View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>日期</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Handler</t>
     </r>
     <r>
@@ -194,6 +200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Handler</t>
     </r>
     <r>
@@ -384,6 +396,9 @@
     <t>自定义LetterSideBar</t>
   </si>
   <si>
+    <t>Android进程.md</t>
+  </si>
+  <si>
     <t>第08讲：再学 Synchronized，何为 ReentrantLock.md</t>
   </si>
   <si>
@@ -395,11 +410,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -454,6 +469,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -470,50 +521,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,68 +598,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF2F2F2F"/>
       <name val="宋体"/>
@@ -616,31 +631,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,151 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,8 +827,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -821,10 +838,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -845,6 +860,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -854,11 +893,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,36 +922,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,16 +942,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,119 +960,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,9 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,9 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1502,9 +1511,9 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,7 +1534,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1534,7 +1543,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1551,64 +1560,64 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>43959</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>43959</v>
       </c>
       <c r="F2" s="7">
-        <f ca="1" t="shared" ref="F2:F25" si="0">TODAY()-E2</f>
-        <v>300</v>
+        <f ca="1">TODAY()-E2</f>
+        <v>301</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>44081</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>44081</v>
       </c>
       <c r="F3" s="7">
+        <f ca="1" t="shared" ref="F2:F25" si="0">TODAY()-E3</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="9">
+        <v>44082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9">
+        <v>44082</v>
+      </c>
+      <c r="F4" s="7">
         <f ca="1" t="shared" si="0"/>
         <v>178</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="10">
-        <v>44082</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="10">
-        <v>44082</v>
-      </c>
-      <c r="F4" s="7">
-        <f ca="1" t="shared" si="0"/>
-        <v>177</v>
-      </c>
-    </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>44084</v>
       </c>
       <c r="B5" t="s">
@@ -1618,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>44084</v>
       </c>
       <c r="F5" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44089</v>
       </c>
       <c r="B6" t="s">
@@ -1637,16 +1646,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>44089</v>
       </c>
       <c r="F6" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>44091</v>
       </c>
       <c r="B7" t="s">
@@ -1656,16 +1665,16 @@
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>44091</v>
       </c>
       <c r="F7" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>44092</v>
       </c>
       <c r="B8" t="s">
@@ -1675,16 +1684,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>44092</v>
       </c>
       <c r="F8" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>44092</v>
       </c>
       <c r="B9" t="s">
@@ -1694,16 +1703,16 @@
         <v>24</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>44092</v>
       </c>
       <c r="F9" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>44094</v>
       </c>
       <c r="B10" t="s">
@@ -1713,16 +1722,16 @@
         <v>26</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>44094</v>
       </c>
       <c r="F10" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>44094</v>
       </c>
       <c r="B11" t="s">
@@ -1732,16 +1741,16 @@
         <v>28</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>44094</v>
       </c>
       <c r="F11" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>44102</v>
       </c>
       <c r="B12" t="s">
@@ -1751,16 +1760,16 @@
         <v>30</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>44102</v>
       </c>
       <c r="F12" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>44102</v>
       </c>
       <c r="B13" t="s">
@@ -1770,16 +1779,16 @@
         <v>32</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>44102</v>
       </c>
       <c r="F13" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>44123</v>
       </c>
       <c r="B14" t="s">
@@ -1789,16 +1798,16 @@
         <v>34</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>44123</v>
       </c>
       <c r="F14" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>44123</v>
       </c>
       <c r="B15" t="s">
@@ -1808,35 +1817,35 @@
         <v>36</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>44123</v>
       </c>
       <c r="F15" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>44124</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>44124</v>
       </c>
       <c r="F16" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>44124</v>
       </c>
       <c r="B17" t="s">
@@ -1846,16 +1855,16 @@
         <v>40</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>44124</v>
       </c>
       <c r="F17" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>44127</v>
       </c>
       <c r="B18" t="s">
@@ -1865,42 +1874,42 @@
         <v>42</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>44127</v>
       </c>
       <c r="F18" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>44135</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13">
+      <c r="D19" s="15"/>
+      <c r="E19" s="12">
         <v>44135</v>
       </c>
       <c r="F19" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="G19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>44158</v>
       </c>
       <c r="B20" t="s">
@@ -1909,20 +1918,20 @@
       <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13">
+      <c r="D20" s="15"/>
+      <c r="E20" s="12">
         <v>44158</v>
       </c>
       <c r="F20" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>44161</v>
       </c>
       <c r="B21" t="s">
@@ -1931,20 +1940,20 @@
       <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13">
+      <c r="D21" s="15"/>
+      <c r="E21" s="12">
         <v>44161</v>
       </c>
       <c r="F21" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>44166</v>
       </c>
       <c r="B22" t="s">
@@ -1953,20 +1962,20 @@
       <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13">
+      <c r="D22" s="15"/>
+      <c r="E22" s="12">
         <v>44166</v>
       </c>
       <c r="F22" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>44168</v>
       </c>
       <c r="B23" t="s">
@@ -1975,20 +1984,20 @@
       <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13">
+      <c r="D23" s="15"/>
+      <c r="E23" s="12">
         <v>44168</v>
       </c>
       <c r="F23" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>44192</v>
       </c>
       <c r="B24" t="s">
@@ -1997,20 +2006,20 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13">
+      <c r="D24" s="15"/>
+      <c r="E24" s="12">
         <v>44192</v>
       </c>
       <c r="F24" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>44187</v>
       </c>
       <c r="B25" t="s">
@@ -2019,195 +2028,195 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13">
+      <c r="D25" s="15"/>
+      <c r="E25" s="12">
         <v>44187</v>
       </c>
       <c r="F25" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>44190</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="13">
+      <c r="D26" s="19"/>
+      <c r="E26" s="12">
         <v>44190</v>
       </c>
       <c r="F26" s="7">
-        <f ca="1" t="shared" ref="F26:F33" si="1">TODAY()-E26</f>
-        <v>69</v>
-      </c>
-      <c r="G26" s="17" t="s">
+        <f ca="1" t="shared" ref="F26:F34" si="1">TODAY()-E26</f>
+        <v>70</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>44190</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="13">
+      <c r="D27" s="19"/>
+      <c r="E27" s="12">
         <v>44190</v>
       </c>
       <c r="F27" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>44193</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="13">
+      <c r="D28" s="19"/>
+      <c r="E28" s="12">
         <v>44193</v>
       </c>
       <c r="F28" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="G28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>44194</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>44194</v>
       </c>
       <c r="F29" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="G29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>44195</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>44195</v>
       </c>
       <c r="F30" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>44196</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>44196</v>
       </c>
       <c r="F31" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="G31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>44200</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>44200</v>
       </c>
       <c r="F32" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="G32" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="G32" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="33" ht="15" spans="1:8">
-      <c r="A33" s="22">
+      <c r="A33" s="20">
         <v>44251</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22">
+      <c r="D33" s="21"/>
+      <c r="E33" s="20">
         <v>44251</v>
       </c>
       <c r="F33" s="7">
         <f ca="1" t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>44252</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="6">
         <v>44253</v>
       </c>
       <c r="F34" s="7">
-        <f ca="1">TODAY()-E34</f>
-        <v>6</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>73</v>
@@ -2215,205 +2224,223 @@
       <c r="H34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="28">
         <v>44253</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:8">
-      <c r="A35" s="22">
+      <c r="A35" s="20">
         <v>44252</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22">
+      <c r="D35" s="21"/>
+      <c r="E35" s="20">
         <v>44252</v>
       </c>
       <c r="F35" s="7">
         <f ca="1" t="shared" ref="F35:F43" si="2">TODAY()-E35</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:8">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>44253</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="25">
+      <c r="D36" s="21"/>
+      <c r="E36" s="23">
         <v>44253</v>
       </c>
       <c r="F36" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>44256</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>44256</v>
       </c>
       <c r="F37" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>44257</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>44257</v>
       </c>
       <c r="F38" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>44257</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>44257</v>
       </c>
       <c r="F39" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>44258</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>44258</v>
       </c>
       <c r="F40" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>44258</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>44258</v>
       </c>
       <c r="F41" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>44259</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>44259</v>
       </c>
       <c r="F42" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>44259</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="10">
+      <c r="C43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="9">
         <v>44259</v>
       </c>
       <c r="F43" s="7">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9">
+        <v>44260</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="9">
+        <v>44260</v>
+      </c>
+      <c r="F44" s="7">
+        <f ca="1">TODAY()-E44</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="56" spans="3:4">
       <c r="C56" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="29" t="s">
         <v>90</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
